--- a/1학년2학기/데이터베이스/데이터베이스 기말/13week/인공_dy242DB1-SQL실습02-w13-stu.xlsx
+++ b/1학년2학기/데이터베이스/데이터베이스 기말/13week/인공_dy242DB1-SQL실습02-w13-stu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="19130" windowHeight="9340" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="12450" windowHeight="6560" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Quiz1-1-join-stu" sheetId="1" r:id="rId4"/>
@@ -23,7 +23,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="149">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="180">
+  <x:si>
+    <x:t>FROM stu S1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE sage &gt; ANY(SELECT page FROM prof );</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON R.B = S.B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM emp E1, emp E2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT A, R.B, C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE E1.manager = E2 empno;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT empname, manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 자연 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM R RIGHT OUTER JOIN S</x:t>
+  </x:si>
   <x:si>
     <x:t>-- [Quiz 2-1] [실습] 사원명과 직속상사명을 검색하라</x:t>
   </x:si>
@@ -37,7 +64,13 @@
     <x:t>21-02) 영업부나 개발부에 근무하지 않는 사원들의 이름을 검색하라(NOT IN 사용)</x:t>
   </x:si>
   <x:si>
+    <x:t>WHERE dno IN(SELECT deptno FROM department WHERE deptname IN('영업', '개발'));</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">WHERE </x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 오른쪽외부조인</x:t>
   </x:si>
   <x:si>
     <x:t>b</x:t>
@@ -217,21 +250,12 @@
     <x:t>고객이름</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">SELECT </x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM</x:t>
-  </x:si>
-  <x:si>
     <x:t>prof</x:t>
   </x:si>
   <x:si>
     <x:t>오른쪽외부조인</x:t>
   </x:si>
   <x:si>
-    <x:t>WHERE</x:t>
-  </x:si>
-  <x:si>
     <x:t>1) 자연조인</x:t>
   </x:si>
   <x:si>
@@ -298,10 +322,16 @@
     <x:t>3-3) 학생 테이블과 교수 테이블에서 모든 학생들보다 나이가 많은 교수의</x:t>
   </x:si>
   <x:si>
+    <x:t>FROM R LEFT OUTER JOIN S</x:t>
+  </x:si>
+  <x:si>
     <x:t>pname</x:t>
   </x:si>
   <x:si>
     <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNION</x:t>
   </x:si>
   <x:si>
     <x:t>emp</x:t>
@@ -335,6 +365,18 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>SELECT empname, dno, salary FROM employee E1 WHERE salary &gt;  (SELECT AVG(salary) FROM employee E2 WHERE E1.dno = E2.dno);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE dept =(SELECT dept FROM pro WHERE pno IN(p1, p2));</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM employee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT empname</x:t>
+  </x:si>
+  <x:si>
     <x:t>3) 완전외부조인</x:t>
   </x:si>
   <x:si>
@@ -344,6 +386,15 @@
     <x:t>(self join)</x:t>
   </x:si>
   <x:si>
+    <x:t>WHERE sage = (SELECT MAX(sage) FROM stu S2 WHERE S1.dept= S2.dept);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE dept = (SELECT pro.dept FROM pro WHERE pname='이정무');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE dno NOT EXISTS(SELECT * FROM department WHERE deptname='총무'));</x:t>
+  </x:si>
+  <x:si>
     <x:t>3-2) 교수 테이블에서 pno 가 p1 이거나 p2 인 학과와 같은 학생 이름, 학과, 나이를 검색하라</x:t>
   </x:si>
   <x:si>
@@ -356,6 +407,9 @@
     <x:t>-- 카디날리티는 무엇인가?</x:t>
   </x:si>
   <x:si>
+    <x:t>WHERE dno NOT IN(SELECT deptno FROM department WHERE deptname IN('영업', '개발'));</x:t>
+  </x:si>
+  <x:si>
     <x:t>속성 B를 조인 속성으로 하여</x:t>
   </x:si>
   <x:si>
@@ -363,9 +417,6 @@
   </x:si>
   <x:si>
     <x:t>-- SQL문법을 작성하시오</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM  employee</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -480,12 +531,6 @@
     <x:t>자연조인, 왼쪽외부조인, 완전외부조인으로 수행하였을 때</x:t>
   </x:si>
   <x:si>
-    <x:t>SELECT empname, title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE empname = '박영권');</x:t>
-  </x:si>
-  <x:si>
     <x:r>
       <x:t xml:space="preserve">[Quiz </x:t>
     </x:r>
@@ -580,45 +625,6 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>W</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>HERE title =</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>SELECT title</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>F</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ROM employee</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
       <x:t>p</x:t>
     </x:r>
     <x:r>
@@ -709,7 +715,64 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>WHERE sage &gt;(SELECT MAX(sage) FROM stu);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-3-6) 각 학과마다 가장 나이가 많은 학생 이름, 학과, 나이를 검색하라</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">SELECT pno, pname, page </x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE title = (SELECT title FROM employee WHERE empname = '박영권');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT sname, dept, sage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON R.B = S.B;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT deptname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM department</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM 추천고객 A, 추천고객 B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM stu</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SELECT empname, title </x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT sname, sage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE page &gt; ALL (SELECT sage FROM stu);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT sname, stu.dept, sage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT sno, sname, sage</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SELECT *    </x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT A.고객이름 고객명, B.추천고객 추천고객명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25) 자신이 속한 부서의 사원들의 평균급여보다 많은 급여를 받는 사원들에 대해서 이름, 부서번호, 급여를 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  R, S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE R.B = S.B;</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -949,20 +1012,20 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing78.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
+      <xdr:colOff>654050</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
@@ -980,7 +1043,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6155531" y="2670968"/>
+          <a:off x="6434666" y="2667000"/>
           <a:ext cx="998482" cy="1057603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -998,7 +1061,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing79.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1029,7 +1092,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5018689" y="1504293"/>
+          <a:off x="5163206" y="1504293"/>
           <a:ext cx="985344" cy="1103586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1047,20 +1110,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing80.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
@@ -1078,7 +1141,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6884275" y="1504293"/>
+          <a:off x="7413624" y="1476374"/>
           <a:ext cx="985344" cy="1103586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1096,7 +1159,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing81.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1145,7 +1208,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing82.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1523,17 +1586,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:P41"/>
+  <x:dimension ref="B2:P42"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A9" zoomScale="120" zoomScaleNormal="75" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <x:selection activeCell="Q39" activeCellId="0" sqref="Q39:Q39"/>
+    <x:sheetView showGridLines="0" topLeftCell="A17" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <x:selection activeCell="I35" activeCellId="0" sqref="I35:I35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="2" style="6" customWidth="1"/>
     <x:col min="2" max="2" width="8.88671875" style="6"/>
-    <x:col min="3" max="4" width="5.77734375" style="6" customWidth="1"/>
+    <x:col min="3" max="3" width="8.16796875" style="6" customWidth="1"/>
+    <x:col min="4" max="4" width="5.77734375" style="6" customWidth="1"/>
     <x:col min="5" max="5" width="2.33203125" style="6" customWidth="1"/>
     <x:col min="6" max="7" width="5.77734375" style="6" customWidth="1"/>
     <x:col min="8" max="11" width="8.88671875" style="6"/>
@@ -1543,30 +1607,30 @@
   <x:sheetData>
     <x:row r="2" spans="2:3">
       <x:c r="B2" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="3:3">
       <x:c r="C3" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="3:3">
       <x:c r="C4" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="3:3">
       <x:c r="C5" s="6" t="s">
-        <x:v>124</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="3:3">
       <x:c r="C6" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="3:8">
@@ -1579,45 +1643,45 @@
     </x:row>
     <x:row r="8" spans="3:12">
       <x:c r="C8" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D8" s="2"/>
       <x:c r="E8" s="2"/>
       <x:c r="F8" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G8" s="2"/>
       <x:c r="L8" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="3:16">
       <x:c r="C9" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E9" s="2"/>
       <x:c r="F9" s="10" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G9" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L9" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="O9" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="P9" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="3:16">
       <x:c r="C10" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D10" s="4">
         <x:v>2</x:v>
@@ -1627,21 +1691,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G10" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L10" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="O10" s="11">
         <x:v>4</x:v>
       </x:c>
       <x:c r="P10" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:16">
       <x:c r="C11" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D11" s="4">
         <x:v>3</x:v>
@@ -1651,21 +1715,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G11" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="L11" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O11" s="11">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P11" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="3:7">
       <x:c r="C12" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D12" s="4">
         <x:v>3</x:v>
@@ -1675,12 +1739,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G12" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="3:8">
       <x:c r="C13" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D13" s="4">
         <x:v>5</x:v>
@@ -1690,77 +1754,117 @@
       <x:c r="G13" s="2"/>
       <x:c r="H13" s="2"/>
     </x:row>
-    <x:row r="15" spans="12:12">
+    <x:row r="15" spans="3:12">
+      <x:c r="C15" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D15" s="2"/>
+      <x:c r="E15" s="2"/>
+      <x:c r="F15" s="2"/>
+      <x:c r="G15" s="2"/>
       <x:c r="L15" s="8" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="12:14">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="3:14">
+      <x:c r="C16" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D16" s="2"/>
+      <x:c r="E16" s="2"/>
+      <x:c r="F16" s="2"/>
+      <x:c r="G16" s="2"/>
       <x:c r="L16" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M16" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N16" s="4" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="12:14">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="3:14">
+      <x:c r="C17" s="5" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D17" s="2"/>
+      <x:c r="E17" s="2"/>
+      <x:c r="F17" s="2"/>
+      <x:c r="G17" s="2"/>
       <x:c r="L17" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M17" s="4">
         <x:v>2</x:v>
       </x:c>
       <x:c r="N17" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="12:14">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="3:14">
+      <x:c r="C18" s="5" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D18" s="2"/>
+      <x:c r="E18" s="2"/>
+      <x:c r="F18" s="2"/>
+      <x:c r="G18" s="2"/>
       <x:c r="L18" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M18" s="4">
         <x:v>3</x:v>
       </x:c>
       <x:c r="N18" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="12:14">
       <x:c r="L19" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M19" s="4">
         <x:v>3</x:v>
       </x:c>
       <x:c r="N19" s="4" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="3:12">
+      <x:c r="C21" s="6" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="L21" s="8" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="3:15">
+      <x:c r="C22" s="6" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D22" s="6" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="L22" s="4" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="M22" s="4" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="N22" s="4" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="O22" s="4" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="3:15">
+      <x:c r="C23" s="6" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="L23" s="4" t="s">
         <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="12:12">
-      <x:c r="L21" s="8" t="s">
-        <x:v>81</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="12:15">
-      <x:c r="L22" s="4" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="M22" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="N22" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O22" s="4" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="12:15">
-      <x:c r="L23" s="4" t="s">
-        <x:v>16</x:v>
       </x:c>
       <x:c r="M23" s="4">
         <x:v>2</x:v>
@@ -1769,12 +1873,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O23" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="12:15">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="3:15">
+      <x:c r="C24" s="6" t="s">
+        <x:v>165</x:v>
+      </x:c>
       <x:c r="L24" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M24" s="4">
         <x:v>3</x:v>
@@ -1783,12 +1890,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O24" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="12:15">
       <x:c r="L25" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M25" s="4">
         <x:v>3</x:v>
@@ -1797,59 +1904,74 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O25" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="12:15">
       <x:c r="L26" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M26" s="4">
         <x:v>5</x:v>
       </x:c>
       <x:c r="N26" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O26" s="4" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="12:12">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="3:12">
+      <x:c r="C28" s="6" t="s">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="L28" s="8" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="12:15">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="3:15">
+      <x:c r="C29" s="6" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D29" s="6" t="s">
+        <x:v>127</x:v>
+      </x:c>
       <x:c r="L29" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M29" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N29" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="O29" s="4" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="12:15">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="3:15">
+      <x:c r="C30" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="L30" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M30" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N30" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O30" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="12:15">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="3:15">
+      <x:c r="C31" s="6" t="s">
+        <x:v>165</x:v>
+      </x:c>
       <x:c r="L31" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M31" s="4">
         <x:v>2</x:v>
@@ -1858,12 +1980,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O31" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="12:15">
       <x:c r="L32" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M32" s="4">
         <x:v>3</x:v>
@@ -1872,12 +1994,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O32" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="12:15">
       <x:c r="L33" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M33" s="4">
         <x:v>3</x:v>
@@ -1886,31 +2008,40 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O33" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="12:12">
       <x:c r="L35" s="8" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="12:15">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="3:15">
+      <x:c r="C36" s="6" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D36" s="6" t="s">
+        <x:v>127</x:v>
+      </x:c>
       <x:c r="L36" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M36" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N36" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="O36" s="4" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="12:15">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="3:15">
+      <x:c r="C37" s="6" t="s">
+        <x:v>79</x:v>
+      </x:c>
       <x:c r="L37" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M37" s="4">
         <x:v>2</x:v>
@@ -1919,12 +2050,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O37" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="12:15">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="3:15">
+      <x:c r="C38" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="L38" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M38" s="4">
         <x:v>3</x:v>
@@ -1933,12 +2067,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O38" s="4" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="12:15">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="3:15">
+      <x:c r="C39" s="6" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="L39" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M39" s="4">
         <x:v>3</x:v>
@@ -1947,35 +2084,49 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O39" s="4" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="12:15">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="3:15">
+      <x:c r="C40" s="6" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D40" s="6" t="s">
+        <x:v>127</x:v>
+      </x:c>
       <x:c r="L40" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M40" s="4">
         <x:v>5</x:v>
       </x:c>
       <x:c r="N40" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O40" s="4" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="12:15">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="3:15">
+      <x:c r="C41" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="L41" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M41" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N41" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O41" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="3:3">
+      <x:c r="C42" s="6" t="s">
+        <x:v>165</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1991,45 +2142,47 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="B2:M21"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScale="145" zoomScaleNormal="75" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="H22" activeCellId="0" sqref="H22:H22"/>
+    <x:sheetView showGridLines="0" topLeftCell="B9" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="I13" activeCellId="0" sqref="I13:I13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="2" style="6" customWidth="1"/>
     <x:col min="2" max="2" width="8.88671875" style="6"/>
-    <x:col min="3" max="3" width="5.77734375" style="6" customWidth="1"/>
+    <x:col min="3" max="3" width="7" style="6" customWidth="1"/>
     <x:col min="4" max="4" width="8.88671875" style="6" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
     <x:col min="6" max="7" width="5.77734375" style="6" customWidth="1"/>
-    <x:col min="8" max="11" width="8.88671875" style="6"/>
+    <x:col min="8" max="9" width="8.88671875" style="6"/>
+    <x:col min="10" max="10" width="10.33203125" style="6" customWidth="1"/>
+    <x:col min="11" max="11" width="8.88671875" style="6"/>
     <x:col min="12" max="16" width="5.77734375" style="6" customWidth="1"/>
     <x:col min="17" max="16384" width="8.88671875" style="6"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="2:5">
       <x:c r="B2" s="12" t="s">
-        <x:v>127</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E2" s="6" t="s">
-        <x:v>82</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:3">
       <x:c r="B3" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C3" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="3:6">
       <x:c r="C5" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D5" s="2"/>
       <x:c r="E5" s="9"/>
@@ -2037,25 +2190,25 @@
     </x:row>
     <x:row r="6" spans="3:13">
       <x:c r="C6" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F6" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="I6" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J6" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="M6" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="3:13">
@@ -2063,7 +2216,7 @@
         <x:v>1003</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E7" s="10">
         <x:v>3011</x:v>
@@ -2071,16 +2224,22 @@
       <x:c r="F7" s="10">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="I7" s="4" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J7" s="4" t="s">
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="M7" s="8" t="s">
-        <x:v>121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="3:6">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="3:13">
       <x:c r="C8" s="10">
         <x:v>2106</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E8" s="10">
         <x:v>3426</x:v>
@@ -2088,27 +2247,45 @@
       <x:c r="F8" s="10">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="3:6">
+      <x:c r="I8" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J8" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M8" s="6" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="3:13">
       <x:c r="C9" s="10">
         <x:v>3011</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F9" s="10">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="3:8">
+      <x:c r="I9" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J9" s="4" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M9" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="3:13">
       <x:c r="C10" s="10">
         <x:v>3426</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E10" s="10">
         <x:v>3011</x:v>
@@ -2118,13 +2295,22 @@
       </x:c>
       <x:c r="G10" s="2"/>
       <x:c r="H10" s="2"/>
+      <x:c r="I10" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J10" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M10" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="3:6">
       <x:c r="C11" s="10">
         <x:v>3427</x:v>
       </x:c>
       <x:c r="D11" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="10">
         <x:v>2106</x:v>
@@ -2135,13 +2321,13 @@
     </x:row>
     <x:row r="15" spans="3:11">
       <x:c r="C15" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D15" s="2"/>
       <x:c r="E15" s="9"/>
       <x:c r="F15" s="2"/>
       <x:c r="H15" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I15" s="2"/>
       <x:c r="J15" s="9"/>
@@ -2149,28 +2335,28 @@
     </x:row>
     <x:row r="16" spans="3:11">
       <x:c r="C16" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D16" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E16" s="13" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F16" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H16" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I16" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="J16" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K16" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="3:11">
@@ -2178,7 +2364,7 @@
         <x:v>1003</x:v>
       </x:c>
       <x:c r="D17" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E17" s="13">
         <x:v>3011</x:v>
@@ -2190,7 +2376,7 @@
         <x:v>1003</x:v>
       </x:c>
       <x:c r="I17" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J17" s="10">
         <x:v>3011</x:v>
@@ -2204,7 +2390,7 @@
         <x:v>2106</x:v>
       </x:c>
       <x:c r="D18" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E18" s="13">
         <x:v>3426</x:v>
@@ -2216,7 +2402,7 @@
         <x:v>2106</x:v>
       </x:c>
       <x:c r="I18" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J18" s="10">
         <x:v>3426</x:v>
@@ -2230,10 +2416,10 @@
         <x:v>3011</x:v>
       </x:c>
       <x:c r="D19" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E19" s="13" t="s">
-        <x:v>32</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F19" s="10">
         <x:v>1</x:v>
@@ -2242,10 +2428,10 @@
         <x:v>3011</x:v>
       </x:c>
       <x:c r="I19" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J19" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K19" s="10">
         <x:v>1</x:v>
@@ -2256,7 +2442,7 @@
         <x:v>3426</x:v>
       </x:c>
       <x:c r="D20" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E20" s="13">
         <x:v>3011</x:v>
@@ -2268,7 +2454,7 @@
         <x:v>3426</x:v>
       </x:c>
       <x:c r="I20" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J20" s="10">
         <x:v>3011</x:v>
@@ -2282,7 +2468,7 @@
         <x:v>3427</x:v>
       </x:c>
       <x:c r="D21" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E21" s="13">
         <x:v>2106</x:v>
@@ -2294,7 +2480,7 @@
         <x:v>3427</x:v>
       </x:c>
       <x:c r="I21" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J21" s="10">
         <x:v>2106</x:v>
@@ -2316,47 +2502,53 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="B2:Q20"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScale="145" zoomScaleNormal="75" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="K5" activeCellId="0" sqref="K5:K5"/>
+    <x:sheetView showGridLines="0" topLeftCell="B1" zoomScale="60" zoomScaleNormal="75" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <x:selection activeCell="V10" activeCellId="0" sqref="V10:V10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="2" style="6" customWidth="1"/>
     <x:col min="2" max="2" width="8.88671875" style="6"/>
-    <x:col min="3" max="3" width="8.77734375" style="6" customWidth="1"/>
-    <x:col min="4" max="4" width="6.77734375" style="6" customWidth="1"/>
+    <x:col min="3" max="3" width="9.75" style="6" customWidth="1"/>
+    <x:col min="4" max="4" width="7.91796875" style="6" customWidth="1"/>
     <x:col min="5" max="5" width="5.33203125" style="6" customWidth="1"/>
-    <x:col min="6" max="8" width="5.77734375" style="6" customWidth="1"/>
-    <x:col min="9" max="9" width="7.109375" style="6" customWidth="1"/>
+    <x:col min="6" max="7" width="5.77734375" style="6" customWidth="1"/>
+    <x:col min="8" max="8" width="6.91796875" style="6" customWidth="1"/>
+    <x:col min="9" max="9" width="8.25" style="6" customWidth="1"/>
     <x:col min="10" max="10" width="5.77734375" style="6" customWidth="1"/>
-    <x:col min="11" max="14" width="8.88671875" style="6"/>
-    <x:col min="15" max="19" width="5.77734375" style="6" customWidth="1"/>
+    <x:col min="11" max="11" width="9.75" style="6" customWidth="1"/>
+    <x:col min="12" max="12" width="8.88671875" style="6"/>
+    <x:col min="13" max="13" width="10.5" style="6" customWidth="1"/>
+    <x:col min="14" max="14" width="8.88671875" style="6"/>
+    <x:col min="15" max="16" width="5.77734375" style="6" customWidth="1"/>
+    <x:col min="17" max="17" width="7.75" style="6" customWidth="1"/>
+    <x:col min="18" max="19" width="5.77734375" style="6" customWidth="1"/>
     <x:col min="20" max="16384" width="8.88671875" style="6"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="2:5">
       <x:c r="B2" s="12" t="s">
-        <x:v>137</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E2" s="6" t="s">
-        <x:v>82</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:3">
       <x:c r="B3" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C3" s="6" t="s">
-        <x:v>129</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="3:9">
       <x:c r="C5" s="9" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D5" s="2"/>
       <x:c r="E5" s="9"/>
@@ -2367,154 +2559,165 @@
     </x:row>
     <x:row r="6" spans="3:16">
       <x:c r="C6" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F6" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G6" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H6" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I6" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L6" s="10" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="M6" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="L6" s="10" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="M6" s="10" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="P6" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="3:16">
       <x:c r="C7" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E7" s="10">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G7" s="10" t="s">
-        <x:v>104</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H7" s="10">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="I7" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="L7" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="M7" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="P7" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="3:13">
       <x:c r="C8" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="10">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F8" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G8" s="10" t="s">
-        <x:v>102</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H8" s="10">
         <x:v>2500</x:v>
       </x:c>
       <x:c r="I8" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="L8" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M8" s="4" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="3:13">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="3:16">
       <x:c r="C9" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E9" s="10">
         <x:v>28</x:v>
       </x:c>
       <x:c r="F9" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G9" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H9" s="10">
         <x:v>4500</x:v>
       </x:c>
       <x:c r="I9" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L9" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M9" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="3:11">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P9" s="6" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="3:16">
       <x:c r="C10" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E10" s="10">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F10" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G10" s="10" t="s">
-        <x:v>104</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H10" s="10">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J10" s="2"/>
       <x:c r="K10" s="2"/>
+      <x:c r="P10" s="6" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="16:16">
+      <x:c r="P11" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="3:17">
       <x:c r="C15" s="9" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D15" s="2"/>
       <x:c r="E15" s="9"/>
@@ -2523,7 +2726,7 @@
       <x:c r="H15" s="2"/>
       <x:c r="I15" s="2"/>
       <x:c r="K15" s="9" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L15" s="2"/>
       <x:c r="M15" s="9"/>
@@ -2534,222 +2737,222 @@
     </x:row>
     <x:row r="16" spans="3:17">
       <x:c r="C16" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D16" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E16" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F16" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G16" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H16" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I16" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K16" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="L16" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M16" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N16" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O16" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="P16" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q16" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="3:17">
       <x:c r="C17" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D17" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E17" s="10">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F17" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G17" s="10" t="s">
-        <x:v>104</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H17" s="10">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="I17" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K17" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L17" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="M17" s="10">
         <x:v>20</x:v>
       </x:c>
       <x:c r="N17" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="O17" s="10" t="s">
-        <x:v>104</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P17" s="10">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="Q17" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="3:17">
       <x:c r="C18" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D18" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E18" s="10">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F18" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G18" s="10" t="s">
-        <x:v>102</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H18" s="10">
         <x:v>2500</x:v>
       </x:c>
       <x:c r="I18" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K18" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L18" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="M18" s="10">
         <x:v>25</x:v>
       </x:c>
       <x:c r="N18" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="O18" s="10" t="s">
-        <x:v>102</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="P18" s="10">
         <x:v>2500</x:v>
       </x:c>
       <x:c r="Q18" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="3:17">
       <x:c r="C19" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D19" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E19" s="10">
         <x:v>28</x:v>
       </x:c>
       <x:c r="F19" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G19" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H19" s="10">
         <x:v>4500</x:v>
       </x:c>
       <x:c r="I19" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="K19" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="L19" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M19" s="10">
         <x:v>28</x:v>
       </x:c>
       <x:c r="N19" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="O19" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="P19" s="10">
         <x:v>4500</x:v>
       </x:c>
       <x:c r="Q19" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="3:17">
       <x:c r="C20" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D20" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E20" s="10">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F20" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G20" s="10" t="s">
-        <x:v>104</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H20" s="10">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I20" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K20" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="L20" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M20" s="10">
         <x:v>22</x:v>
       </x:c>
       <x:c r="N20" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="O20" s="10" t="s">
-        <x:v>104</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P20" s="10">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q20" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2763,10 +2966,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet4"/>
-  <x:dimension ref="B1:O43"/>
+  <x:dimension ref="B1:O42"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A9" zoomScale="145" zoomScaleNormal="75" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="A11" activeCellId="0" sqref="A11:A11"/>
+    <x:sheetView showGridLines="0" topLeftCell="C17" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <x:selection activeCell="L27" activeCellId="0" sqref="L27:L27"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.39999999999999857891"/>
@@ -2794,10 +2997,10 @@
     </x:row>
     <x:row r="2" spans="2:11">
       <x:c r="B2" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D2" s="1"/>
       <x:c r="H2" s="1"/>
@@ -2805,50 +3008,50 @@
     </x:row>
     <x:row r="3" spans="15:15">
       <x:c r="O3" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:15">
       <x:c r="D4" s="15" t="s">
-        <x:v>135</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="H4" s="15" t="s">
-        <x:v>130</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="O4" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:15">
       <x:c r="D5" s="17" t="s">
-        <x:v>134</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E5" s="17" t="s">
-        <x:v>91</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F5" s="17" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H5" s="17" t="s">
-        <x:v>51</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I5" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J5" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K5" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L5" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M5" s="17" t="s">
-        <x:v>136</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O5" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:15">
@@ -2856,7 +3059,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>118</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>8</x:v>
@@ -2865,10 +3068,10 @@
         <x:v>1003</x:v>
       </x:c>
       <x:c r="I6" s="17" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J6" s="17" t="s">
-        <x:v>117</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K6" s="4">
         <x:v>4377</x:v>
@@ -2880,7 +3083,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O6" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:13">
@@ -2888,7 +3091,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E7" s="17" t="s">
-        <x:v>119</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>10</x:v>
@@ -2897,10 +3100,10 @@
         <x:v>1365</x:v>
       </x:c>
       <x:c r="I7" s="17" t="s">
-        <x:v>107</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="J7" s="17" t="s">
-        <x:v>108</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="K7" s="4">
         <x:v>3426</x:v>
@@ -2917,7 +3120,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="17" t="s">
-        <x:v>106</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F8" s="4">
         <x:v>9</x:v>
@@ -2926,10 +3129,10 @@
         <x:v>2106</x:v>
       </x:c>
       <x:c r="I8" s="17" t="s">
-        <x:v>25</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J8" s="17" t="s">
-        <x:v>115</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="K8" s="4">
         <x:v>1003</x:v>
@@ -2941,7 +3144,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O8" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="4:13">
@@ -2949,7 +3152,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E9" s="17" t="s">
-        <x:v>112</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F9" s="4">
         <x:v>7</x:v>
@@ -2958,10 +3161,10 @@
         <x:v>3011</x:v>
       </x:c>
       <x:c r="I9" s="17" t="s">
-        <x:v>28</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J9" s="17" t="s">
-        <x:v>109</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="K9" s="4">
         <x:v>4377</x:v>
@@ -2981,10 +3184,10 @@
         <x:v>3426</x:v>
       </x:c>
       <x:c r="I10" s="17" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J10" s="17" t="s">
-        <x:v>117</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K10" s="4">
         <x:v>4377</x:v>
@@ -2996,7 +3199,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O10" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:15">
@@ -3007,10 +3210,10 @@
         <x:v>3427</x:v>
       </x:c>
       <x:c r="I11" s="17" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J11" s="17" t="s">
-        <x:v>108</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="K11" s="4">
         <x:v>3011</x:v>
@@ -3022,7 +3225,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O11" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="8:13">
@@ -3030,13 +3233,13 @@
         <x:v>4377</x:v>
       </x:c>
       <x:c r="I12" s="17" t="s">
-        <x:v>111</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="J12" s="17" t="s">
-        <x:v>116</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="K12" s="17" t="s">
-        <x:v>32</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="L12" s="4">
         <x:v>5000000</x:v>
@@ -3055,13 +3258,13 @@
     </x:row>
     <x:row r="14" spans="4:8">
       <x:c r="D14" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H14" s="16"/>
     </x:row>
     <x:row r="15" spans="4:10">
       <x:c r="D15" s="5" t="s">
-        <x:v>125</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E15" s="5"/>
       <x:c r="F15" s="5"/>
@@ -3071,7 +3274,7 @@
     </x:row>
     <x:row r="16" spans="4:10">
       <x:c r="D16" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E16" s="5"/>
       <x:c r="F16" s="5"/>
@@ -3080,47 +3283,41 @@
       <x:c r="J16" s="5"/>
     </x:row>
     <x:row r="17" spans="4:8">
-      <x:c r="D17" s="14" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="F17" s="14" t="s">
-        <x:v>139</x:v>
-      </x:c>
+      <x:c r="D17" s="5" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E17" s="5"/>
+      <x:c r="F17" s="14"/>
       <x:c r="H17" s="16"/>
     </x:row>
     <x:row r="18" spans="4:8">
-      <x:c r="D18" s="14" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="F18" s="14" t="s">
-        <x:v>140</x:v>
-      </x:c>
+      <x:c r="D18" s="14"/>
+      <x:c r="F18" s="14"/>
       <x:c r="H18" s="16"/>
     </x:row>
-    <x:row r="19" spans="6:8">
-      <x:c r="F19" s="14" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="H19" s="16"/>
-    </x:row>
-    <x:row r="20" spans="8:8">
-      <x:c r="H20" s="16"/>
-    </x:row>
-    <x:row r="21" spans="8:8">
-      <x:c r="H21" s="16"/>
+    <x:row r="19" spans="4:6">
+      <x:c r="D19" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="F19" s="5"/>
+    </x:row>
+    <x:row r="20" spans="4:4">
+      <x:c r="D20" s="5" t="s">
+        <x:v>90</x:v>
+      </x:c>
     </x:row>
     <x:row r="22" spans="8:8">
       <x:c r="H22" s="16"/>
     </x:row>
     <x:row r="23" spans="4:8">
       <x:c r="D23" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H23" s="16"/>
     </x:row>
     <x:row r="24" spans="4:10">
       <x:c r="D24" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E24" s="5"/>
       <x:c r="F24" s="5"/>
@@ -3130,7 +3327,7 @@
     </x:row>
     <x:row r="25" spans="4:10">
       <x:c r="D25" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E25" s="5"/>
       <x:c r="F25" s="5"/>
@@ -3140,7 +3337,7 @@
     </x:row>
     <x:row r="26" spans="4:10">
       <x:c r="D26" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E26" s="5"/>
       <x:c r="F26" s="5"/>
@@ -3161,27 +3358,39 @@
     </x:row>
     <x:row r="30" spans="4:8">
       <x:c r="D30" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H30" s="16"/>
     </x:row>
-    <x:row r="31" spans="4:8">
+    <x:row r="31" spans="4:10">
       <x:c r="D31" s="5" t="s">
-        <x:v>44</x:v>
-      </x:c>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="5"/>
+      <x:c r="F31" s="5"/>
       <x:c r="H31" s="16"/>
-    </x:row>
-    <x:row r="32" spans="4:8">
+      <x:c r="I31" s="5"/>
+      <x:c r="J31" s="5"/>
+    </x:row>
+    <x:row r="32" spans="4:10">
       <x:c r="D32" s="5" t="s">
-        <x:v>45</x:v>
-      </x:c>
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E32" s="5"/>
+      <x:c r="F32" s="5"/>
       <x:c r="H32" s="16"/>
-    </x:row>
-    <x:row r="33" spans="4:8">
+      <x:c r="I32" s="5"/>
+      <x:c r="J32" s="5"/>
+    </x:row>
+    <x:row r="33" spans="4:10">
       <x:c r="D33" s="5" t="s">
-        <x:v>48</x:v>
-      </x:c>
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E33" s="5"/>
+      <x:c r="F33" s="5"/>
       <x:c r="H33" s="16"/>
+      <x:c r="I33" s="5"/>
+      <x:c r="J33" s="5"/>
     </x:row>
     <x:row r="34" spans="8:8">
       <x:c r="H34" s="16"/>
@@ -3205,7 +3414,7 @@
     </x:row>
     <x:row r="38" spans="4:10">
       <x:c r="D38" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E38" s="5"/>
       <x:c r="F38" s="5"/>
@@ -3215,32 +3424,23 @@
     </x:row>
     <x:row r="39" spans="4:8">
       <x:c r="D39" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H39" s="16"/>
     </x:row>
     <x:row r="40" spans="4:4">
       <x:c r="D40" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="4:6">
       <x:c r="D41" s="5" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="F41" s="5" t="s">
-        <x:v>44</x:v>
-      </x:c>
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F41" s="5"/>
     </x:row>
     <x:row r="42" spans="6:6">
-      <x:c r="F42" s="5" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="6:6">
-      <x:c r="F43" s="5" t="s">
-        <x:v>48</x:v>
-      </x:c>
+      <x:c r="F42" s="5"/>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
@@ -3253,10 +3453,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
-  <x:dimension ref="B1:N51"/>
+  <x:dimension ref="B1:N61"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScale="145" zoomScaleNormal="75" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="D52" activeCellId="0" sqref="D52:D52"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="D41" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <x:selection activeCell="M51" activeCellId="0" sqref="M51:M51"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.39999999999999857891"/>
@@ -3282,10 +3482,10 @@
     </x:row>
     <x:row r="2" spans="2:12">
       <x:c r="B2" s="14" t="s">
-        <x:v>128</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D2" s="1"/>
       <x:c r="I2" s="1"/>
@@ -3293,70 +3493,70 @@
     </x:row>
     <x:row r="3" spans="14:14">
       <x:c r="N3" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:14">
       <x:c r="D4" s="15" t="s">
-        <x:v>114</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I4" s="15" t="s">
-        <x:v>46</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N4" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:14">
       <x:c r="D5" s="17" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E5" s="17" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F5" s="17" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G5" s="17" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I5" s="17" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="J5" s="17" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="K5" s="17" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L5" s="17" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="N5" s="2" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="E5" s="17" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="F5" s="17" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G5" s="17" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I5" s="17" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="J5" s="17" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="K5" s="17" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="L5" s="17" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="N5" s="2" t="s">
-        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:12">
       <x:c r="D6" s="17" t="s">
-        <x:v>143</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>101</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F6" s="17" t="s">
-        <x:v>95</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G6" s="4">
         <x:v>23</x:v>
       </x:c>
       <x:c r="I6" s="17" t="s">
-        <x:v>141</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="J6" s="17" t="s">
-        <x:v>94</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K6" s="17" t="s">
-        <x:v>95</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="L6" s="4">
         <x:v>36</x:v>
@@ -3364,71 +3564,71 @@
     </x:row>
     <x:row r="7" spans="4:14">
       <x:c r="D7" s="17" t="s">
-        <x:v>144</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E7" s="17" t="s">
-        <x:v>99</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F7" s="17" t="s">
-        <x:v>95</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G7" s="4">
         <x:v>34</x:v>
       </x:c>
       <x:c r="I7" s="17" t="s">
-        <x:v>142</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J7" s="17" t="s">
-        <x:v>92</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="K7" s="17" t="s">
-        <x:v>95</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="L7" s="4">
         <x:v>32</x:v>
       </x:c>
       <x:c r="N7" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:14">
       <x:c r="D8" s="17" t="s">
-        <x:v>146</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E8" s="17" t="s">
-        <x:v>93</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F8" s="17" t="s">
-        <x:v>97</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G8" s="4">
         <x:v>22</x:v>
       </x:c>
       <x:c r="I8" s="17" t="s">
-        <x:v>147</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="J8" s="17" t="s">
-        <x:v>98</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="K8" s="17" t="s">
-        <x:v>97</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L8" s="4">
         <x:v>45</x:v>
       </x:c>
       <x:c r="N8" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="4:7">
       <x:c r="D9" s="17" t="s">
-        <x:v>145</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E9" s="17" t="s">
-        <x:v>96</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F9" s="17" t="s">
-        <x:v>97</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G9" s="4">
         <x:v>21</x:v>
@@ -3440,7 +3640,7 @@
       <x:c r="F10" s="16"/>
       <x:c r="G10" s="16"/>
       <x:c r="N10" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:14">
@@ -3449,23 +3649,23 @@
       <x:c r="F11" s="16"/>
       <x:c r="G11" s="16"/>
       <x:c r="N11" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="14:14">
       <x:c r="N13" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="4:9">
       <x:c r="D14" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I14" s="16"/>
     </x:row>
     <x:row r="15" spans="4:11">
       <x:c r="D15" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E15" s="5"/>
       <x:c r="F15" s="5"/>
@@ -3476,7 +3676,7 @@
     </x:row>
     <x:row r="16" spans="4:11">
       <x:c r="D16" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E16" s="5"/>
       <x:c r="F16" s="5"/>
@@ -3487,7 +3687,7 @@
     </x:row>
     <x:row r="17" spans="4:9">
       <x:c r="D17" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F17" s="5"/>
       <x:c r="G17" s="5"/>
@@ -3495,7 +3695,7 @@
     </x:row>
     <x:row r="18" spans="4:9">
       <x:c r="D18" s="14" t="s">
-        <x:v>110</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F18" s="5"/>
       <x:c r="G18" s="5"/>
@@ -3517,13 +3717,13 @@
     </x:row>
     <x:row r="23" spans="4:9">
       <x:c r="D23" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I23" s="16"/>
     </x:row>
     <x:row r="24" spans="4:11">
       <x:c r="D24" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E24" s="5"/>
       <x:c r="F24" s="5"/>
@@ -3534,7 +3734,7 @@
     </x:row>
     <x:row r="25" spans="4:11">
       <x:c r="D25" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E25" s="5"/>
       <x:c r="F25" s="5"/>
@@ -3545,7 +3745,7 @@
     </x:row>
     <x:row r="26" spans="4:11">
       <x:c r="D26" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E26" s="5"/>
       <x:c r="F26" s="5"/>
@@ -3585,7 +3785,7 @@
     </x:row>
     <x:row r="32" spans="4:11">
       <x:c r="D32" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E32" s="5"/>
       <x:c r="F32" s="5"/>
@@ -3596,7 +3796,7 @@
     </x:row>
     <x:row r="33" spans="4:11">
       <x:c r="D33" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E33" s="5"/>
       <x:c r="F33" s="5"/>
@@ -3607,55 +3807,93 @@
     </x:row>
     <x:row r="34" spans="4:9">
       <x:c r="D34" s="5" t="s">
-        <x:v>148</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I34" s="16"/>
     </x:row>
     <x:row r="35" spans="4:4">
       <x:c r="D35" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="4:7">
       <x:c r="D36" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F36" s="5" t="s">
-        <x:v>44</x:v>
-      </x:c>
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="F36" s="5"/>
       <x:c r="G36" s="5"/>
     </x:row>
     <x:row r="37" spans="6:7">
-      <x:c r="F37" s="5" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="F37" s="5"/>
       <x:c r="G37" s="5"/>
     </x:row>
     <x:row r="38" spans="6:7">
-      <x:c r="F38" s="5" t="s">
-        <x:v>48</x:v>
-      </x:c>
+      <x:c r="F38" s="5"/>
       <x:c r="G38" s="5"/>
     </x:row>
     <x:row r="41" spans="4:4">
       <x:c r="D41" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="4:4">
       <x:c r="D42" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="4:4">
+      <x:c r="D43" s="5" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="4:4">
+      <x:c r="D44" s="5" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="4:4">
+      <x:c r="D45" s="5" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="4:4">
       <x:c r="D51" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="4:4">
-      <x:c r="D52" s="2">
-        <x:f>--+I9</x:f>
+      <x:c r="D52" s="5" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="4:4">
+      <x:c r="D53" s="5" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="4:4">
+      <x:c r="D54" s="5" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="4:4">
+      <x:c r="D58" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="4:4">
+      <x:c r="D59" s="5" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="4:4">
+      <x:c r="D60" s="5" t="s">
         <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="4:4">
+      <x:c r="D61" s="5" t="s">
+        <x:v>97</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/1학년2학기/데이터베이스/데이터베이스 기말/13week/인공_dy242DB1-SQL실습02-w13-stu.xlsx
+++ b/1학년2학기/데이터베이스/데이터베이스 기말/13week/인공_dy242DB1-SQL실습02-w13-stu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="12450" windowHeight="6560" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="25350" windowHeight="11820" activeTab="3"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Quiz1-1-join-stu" sheetId="1" r:id="rId4"/>
@@ -23,12 +23,592 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="180">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="181">
+  <x:si>
+    <x:t>SELECT empname, dno, salary FROM employee E1 WHERE salary &gt;  (SELECT AVG(salary) FROM employee E2 WHERE E1.dno = E2.dno);</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SELECT </x:t>
+  </x:si>
+  <x:si>
+    <x:t>gold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자체조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>orange</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천고객</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM R LEFT OUTER JOIN S</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SELECT pno, pname, page </x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름, 부서번호, 급여를 검색하라 (상관중첩질의)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT sname, dept, sage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM R RIGHT OUTER JOIN S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결과 릴레이션의 카디널리티는 각각 얼마인가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 자연조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prof</x:t>
+  </x:si>
+  <x:si>
+    <x:t>apple</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오른쪽외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>s</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>2</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>s</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>3</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>p</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>3</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>s</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>4</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>p</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>s</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>p</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>2</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>banana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하위질의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>carrot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천고객명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>title</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">WHERE </x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE E1.manager = E2 empno;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-5) 가장 나이가 많은 학생 이름, 나이를 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교번, 이름, 나이를 ALL 구문을 이용하여 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자연조인, 왼쪽외부조인, 완전외부조인으로 수행하였을 때</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT sname, stu.dept, sage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT A.고객이름 고객명, B.추천고객 추천고객명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE dno IN(SELECT deptno FROM department WHERE deptname IN('영업', '개발'));</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24) 사원들이 한 명도 소속되지 않은 부서명을 검색하라 (NOT EXISTS 사용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이가 많은 학생이 있을 경우 학생의 학번, 이름, 나이를 SOME 구문으로 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">25) 자신이 속한 부서의 사원들의 평균급여보다 많은 급여를 받는 사원들에 대해서 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-1) 교수 테이블에서 이정무 의 학과와 같은 학생 이름, 학과, 나이를 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25) 자신이 속한 부서의 사원들의 평균급여보다 많은 급여를 받는 사원들에 대해서 이름, 부서번호, 급여를 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE sage = (SELECT MAX(sage) FROM stu S2 WHERE S1.dept= S2.dept);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE title = (SELECT title FROM employee WHERE empname = '박영권');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>empname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(추천고객)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE page &gt; ALL (SELECT sage FROM stu);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 두 릴레이션 R과 S에 대해 R을 왼쪽, S를 오른쪽 릴레이션으로 하고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-3-6) 각 학과마다 가장 나이가 많은 학생 이름, 학과, 나이를 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE sage &gt; ANY(SELECT page FROM prof );</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-3) 학생 테이블과 교수 테이블에서 모든 학생들보다 나이가 많은 교수의</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SELECT empname, title </x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT sno, sname, sage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT empname, manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE dept =(SELECT dept FROM pro WHERE pno IN(p1, p2));</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-2) 교수 테이블에서 pno 가 p1 이거나 p2 인 학과와 같은 학생 이름, 학과, 나이를 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE dept = (SELECT pro.dept FROM pro WHERE pname='이정무');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-- [Quiz 2-2] [실습] 고객명과 추천고객명을 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-- [Quiz 2-1] [실습] 사원명과 직속상사명을 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3-4) 학생 테이블과 교수 테이블에서 한 명 이상 교수보다 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>empno</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>d</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>epartment</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>`</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>`deptno</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>d</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>eptname</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>[Quiz 2</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>-2]</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">[실습 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">3-1] </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>21) 영업부나 개발부에 근무하는 사원들의 이름을 검색하라(IN 사용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20) 박영권과 같은 직급을 갖는 모든 사원들의 이름과 직급을 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-- emp(empno, empname, manager, dno)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-- 추천고객(고객아이디,고객이름,나이,등급,직업,적립금,추천고객)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 왼쪽외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(self join)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 완전외부조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE dno NOT IN(SELECT deptno FROM department WHERE deptname IN('영업', '개발'));</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE dno NOT EXISTS(SELECT * FROM department WHERE deptname='총무'));</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM pro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 오른쪽외부조인</x:t>
+  </x:si>
   <x:si>
     <x:t>FROM stu S1</x:t>
   </x:si>
   <x:si>
-    <x:t>WHERE sage &gt; ANY(SELECT page FROM prof );</x:t>
+    <x:t>1) 자연 조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원유선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이수민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박영권</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조민희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정소화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정지영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김현준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김창섭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오정민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴퓨터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신현주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유준호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김상원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우태하</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이태현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이성래</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이정무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이성민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간호사</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>과장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-02) 영업부나 개발부에 근무하지 않는 사원들의 이름을 검색하라(NOT IN 사용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>employee</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">[실습 2-1] </x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM stu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM  R, S</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">[Quiz </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>2-1]</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>FROM employee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-- SQL문법을 작성하시오</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON R.B = S.B;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT deptname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT empname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-- 카디날리티는 무엇인가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM department</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SELECT *    </x:t>
   </x:si>
   <x:si>
     <x:t>ON R.B = S.B</x:t>
@@ -37,115 +617,90 @@
     <x:t>FROM emp E1, emp E2</x:t>
   </x:si>
   <x:si>
+    <x:t>고객명과 추천고객명을 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FROM 추천고객 A, 추천고객 B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT sname, sage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE R.B = S.B;</x:t>
+  </x:si>
+  <x:si>
     <x:t>SELECT A, R.B, C</x:t>
   </x:si>
   <x:si>
-    <x:t>WHERE E1.manager = E2 empno;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT empname, manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 자연 조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM R RIGHT OUTER JOIN S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-- [Quiz 2-1] [실습] 사원명과 직속상사명을 검색하라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-- [Quiz 2-2] [실습] 고객명과 추천고객명을 검색하라</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3-4) 학생 테이블과 교수 테이블에서 한 명 이상 교수보다 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-02) 영업부나 개발부에 근무하지 않는 사원들의 이름을 검색하라(NOT IN 사용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE dno IN(SELECT deptno FROM department WHERE deptname IN('영업', '개발'));</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">WHERE </x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 오른쪽외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>b</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박영권</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적립금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정소화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김현준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원유선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조민희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김창섭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정지영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이수민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM pro</x:t>
+    <x:t>속성 B를 조인 속성으로 하여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원명과 직속상사명을 검색하라</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>e</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>mpno</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>m</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>anager</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>s</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>alary</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>f</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>loor</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>N</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ULL</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -161,195 +716,37 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>e</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>mpno</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>N</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ULL</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>s</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>alary</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>f</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>loor</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>m</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>anager</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>orange</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자체조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천고객명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>banana</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하위질의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>empname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prof</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오른쪽외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 자연조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천고객</x:t>
-  </x:si>
-  <x:si>
-    <x:t>empno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>apple</x:t>
-  </x:si>
-  <x:si>
-    <x:t>carrot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(추천고객)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gold</x:t>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직속상사명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(emp)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dept</x:t>
   </x:si>
   <x:si>
     <x:t>silver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(emp)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직속상사명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이가 많은 학생이 있을 경우 학생의 학번, 이름, 나이를 SOME 구문으로 검색하라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24) 사원들이 한 명도 소속되지 않은 부서명을 검색하라 (NOT EXISTS 사용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">25) 자신이 속한 부서의 사원들의 평균급여보다 많은 급여를 받는 사원들에 대해서 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-1) 교수 테이블에서 이정무 의 학과와 같은 학생 이름, 학과, 나이를 검색하라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 두 릴레이션 R과 S에 대해 R을 왼쪽, S를 오른쪽 릴레이션으로 하고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-3) 학생 테이블과 교수 테이블에서 모든 학생들보다 나이가 많은 교수의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM R LEFT OUTER JOIN S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조인</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -365,239 +762,6 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>SELECT empname, dno, salary FROM employee E1 WHERE salary &gt;  (SELECT AVG(salary) FROM employee E2 WHERE E1.dno = E2.dno);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE dept =(SELECT dept FROM pro WHERE pno IN(p1, p2));</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM employee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT empname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 완전외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 왼쪽외부조인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(self join)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE sage = (SELECT MAX(sage) FROM stu S2 WHERE S1.dept= S2.dept);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE dept = (SELECT pro.dept FROM pro WHERE pname='이정무');</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE dno NOT EXISTS(SELECT * FROM department WHERE deptname='총무'));</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-2) 교수 테이블에서 pno 가 p1 이거나 p2 인 학과와 같은 학생 이름, 학과, 나이를 검색하라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름, 부서번호, 급여를 검색하라 (상관중첩질의)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결과 릴레이션의 카디널리티는 각각 얼마인가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-- 카디날리티는 무엇인가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE dno NOT IN(SELECT deptno FROM department WHERE deptname IN('영업', '개발'));</x:t>
-  </x:si>
-  <x:si>
-    <x:t>속성 B를 조인 속성으로 하여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원명과 직속상사명을 검색하라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-- SQL문법을 작성하시오</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>d</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>eptname</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>우태하</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이태현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이정무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컴퓨터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신현주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이성민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오정민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유준호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간호사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vip</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김상원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부장</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>이성래</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20) 박영권과 같은 직급을 갖는 모든 사원들의 이름과 직급을 검색하라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-- emp(empno, empname, manager, dno)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-- 추천고객(고객아이디,고객이름,나이,등급,직업,적립금,추천고객)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21) 영업부나 개발부에 근무하는 사원들의 이름을 검색하라(IN 사용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자연조인, 왼쪽외부조인, 완전외부조인으로 수행하였을 때</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">[Quiz </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>2-1]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">[실습 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">3-1] </x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>고객명과 추천고객명을 검색하라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>employee</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">[실습 2-1] </x:t>
-  </x:si>
-  <x:si>
-    <x:t>교번, 이름, 나이를 ALL 구문을 이용하여 검색하라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-5) 가장 나이가 많은 학생 이름, 나이를 검색하라</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>`</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>`deptno</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>d</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>epartment</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
     <x:r>
       <x:t>d</x:t>
     </x:r>
@@ -611,168 +775,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>[Quiz 2</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>-2]</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>p</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>1</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>p</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>2</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>s</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>1</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>s</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>2</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>s</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>4</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>s</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>3</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>p</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>3</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>WHERE sage &gt;(SELECT MAX(sage) FROM stu);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-3-6) 각 학과마다 가장 나이가 많은 학생 이름, 학과, 나이를 검색하라</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SELECT pno, pname, page </x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE title = (SELECT title FROM employee WHERE empname = '박영권');</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT sname, dept, sage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ON R.B = S.B;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT deptname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM department</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM 추천고객 A, 추천고객 B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM stu</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SELECT empname, title </x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT sname, sage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE page &gt; ALL (SELECT sage FROM stu);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT sname, stu.dept, sage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT sno, sname, sage</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SELECT *    </x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT A.고객이름 고객명, B.추천고객 추천고객명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25) 자신이 속한 부서의 사원들의 평균급여보다 많은 급여를 받는 사원들에 대해서 이름, 부서번호, 급여를 검색하라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FROM  R, S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE R.B = S.B;</x:t>
+    <x:t>WHERE sage =(SELECT MAX(sage) FROM stu);</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1012,7 +1015,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1044,7 +1047,7 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="6434666" y="2667000"/>
-          <a:ext cx="998482" cy="1057603"/>
+          <a:ext cx="994833" cy="1058333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1061,7 +1064,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1092,8 +1095,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5163206" y="1504293"/>
-          <a:ext cx="985344" cy="1103586"/>
+          <a:off x="5167312" y="1500187"/>
+          <a:ext cx="981075" cy="1104900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1110,7 +1113,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1142,7 +1145,7 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="7413624" y="1476374"/>
-          <a:ext cx="985344" cy="1103586"/>
+          <a:ext cx="984249" cy="1111250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1159,7 +1162,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1190,8 +1193,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9475732" y="154370"/>
-          <a:ext cx="991913" cy="1024758"/>
+          <a:off x="9440334" y="158750"/>
+          <a:ext cx="1005416" cy="1026583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1208,7 +1211,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1239,8 +1242,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8602060" y="134663"/>
-          <a:ext cx="991913" cy="1064172"/>
+          <a:off x="8567209" y="142875"/>
+          <a:ext cx="1005416" cy="1058333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1283,8 +1286,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8907517" y="4558862"/>
-          <a:ext cx="5675586" cy="2522482"/>
+          <a:off x="8879417" y="4593166"/>
+          <a:ext cx="5662083" cy="2540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1588,8 +1591,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:P42"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A17" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="I35" activeCellId="0" sqref="I35:I35"/>
+    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <x:selection activeCell="U21" activeCellId="0" sqref="U21:U21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.39999999999999857891"/>
@@ -1607,30 +1610,30 @@
   <x:sheetData>
     <x:row r="2" spans="2:3">
       <x:c r="B2" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="3:3">
       <x:c r="C3" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="3:3">
       <x:c r="C4" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="3:3">
       <x:c r="C5" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="3:3">
       <x:c r="C6" s="6" t="s">
-        <x:v>102</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="3:8">
@@ -1643,45 +1646,45 @@
     </x:row>
     <x:row r="8" spans="3:12">
       <x:c r="C8" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D8" s="2"/>
       <x:c r="E8" s="2"/>
       <x:c r="F8" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G8" s="2"/>
       <x:c r="L8" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="3:16">
       <x:c r="C9" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E9" s="2"/>
       <x:c r="F9" s="10" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="G9" s="4" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="G9" s="4" t="s">
-        <x:v>86</x:v>
-      </x:c>
       <x:c r="L9" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O9" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="P9" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="3:16">
       <x:c r="C10" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D10" s="4">
         <x:v>2</x:v>
@@ -1691,21 +1694,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G10" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="L10" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="O10" s="11">
         <x:v>4</x:v>
       </x:c>
       <x:c r="P10" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:16">
       <x:c r="C11" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D11" s="4">
         <x:v>3</x:v>
@@ -1715,21 +1718,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G11" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L11" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O11" s="11">
         <x:v>5</x:v>
       </x:c>
       <x:c r="P11" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="3:7">
       <x:c r="C12" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D12" s="4">
         <x:v>3</x:v>
@@ -1739,12 +1742,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G12" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="3:8">
       <x:c r="C13" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D13" s="4">
         <x:v>5</x:v>
@@ -1756,115 +1759,115 @@
     </x:row>
     <x:row r="15" spans="3:12">
       <x:c r="C15" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D15" s="2"/>
       <x:c r="E15" s="2"/>
       <x:c r="F15" s="2"/>
       <x:c r="G15" s="2"/>
       <x:c r="L15" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="3:14">
       <x:c r="C16" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D16" s="2"/>
       <x:c r="E16" s="2"/>
       <x:c r="F16" s="2"/>
       <x:c r="G16" s="2"/>
       <x:c r="L16" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M16" s="4" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="N16" s="4" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="N16" s="4" t="s">
-        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="3:14">
       <x:c r="C17" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D17" s="2"/>
       <x:c r="E17" s="2"/>
       <x:c r="F17" s="2"/>
       <x:c r="G17" s="2"/>
       <x:c r="L17" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M17" s="4">
         <x:v>2</x:v>
       </x:c>
       <x:c r="N17" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="3:14">
       <x:c r="C18" s="5" t="s">
-        <x:v>179</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D18" s="2"/>
       <x:c r="E18" s="2"/>
       <x:c r="F18" s="2"/>
       <x:c r="G18" s="2"/>
       <x:c r="L18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M18" s="4">
         <x:v>3</x:v>
       </x:c>
       <x:c r="N18" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="12:14">
       <x:c r="L19" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M19" s="4">
         <x:v>3</x:v>
       </x:c>
       <x:c r="N19" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="3:12">
       <x:c r="C21" s="6" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="L21" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="3:15">
       <x:c r="C22" s="6" t="s">
-        <x:v>175</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D22" s="6" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L22" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M22" s="4" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="N22" s="4" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="O22" s="4" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="N22" s="4" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O22" s="4" t="s">
-        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="3:15">
       <x:c r="C23" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L23" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M23" s="4">
         <x:v>2</x:v>
@@ -1873,15 +1876,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O23" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="3:15">
       <x:c r="C24" s="6" t="s">
-        <x:v>165</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="L24" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M24" s="4">
         <x:v>3</x:v>
@@ -1890,12 +1893,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O24" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="12:15">
       <x:c r="L25" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M25" s="4">
         <x:v>3</x:v>
@@ -1904,74 +1907,74 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O25" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="12:15">
       <x:c r="L26" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M26" s="4">
         <x:v>5</x:v>
       </x:c>
       <x:c r="N26" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="O26" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="3:12">
       <x:c r="C28" s="6" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="L28" s="8" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="L28" s="8" t="s">
-        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="3:15">
       <x:c r="C29" s="6" t="s">
-        <x:v>175</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D29" s="6" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L29" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M29" s="4" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="N29" s="4" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="O29" s="4" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="N29" s="4" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O29" s="4" t="s">
-        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="3:15">
       <x:c r="C30" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L30" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="M30" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="N30" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O30" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="3:15">
       <x:c r="C31" s="6" t="s">
-        <x:v>165</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="L31" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M31" s="4">
         <x:v>2</x:v>
@@ -1980,12 +1983,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O31" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="12:15">
       <x:c r="L32" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M32" s="4">
         <x:v>3</x:v>
@@ -1994,12 +1997,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O32" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="12:15">
       <x:c r="L33" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M33" s="4">
         <x:v>3</x:v>
@@ -2008,40 +2011,40 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O33" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="12:12">
       <x:c r="L35" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="3:15">
       <x:c r="C36" s="6" t="s">
-        <x:v>175</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D36" s="6" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L36" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M36" s="4" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="N36" s="4" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="O36" s="4" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="N36" s="4" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O36" s="4" t="s">
-        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="3:15">
       <x:c r="C37" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L37" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M37" s="4">
         <x:v>2</x:v>
@@ -2050,15 +2053,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O37" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="3:15">
       <x:c r="C38" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="L38" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M38" s="4">
         <x:v>3</x:v>
@@ -2067,15 +2070,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O38" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="3:15">
       <x:c r="C39" s="6" t="s">
-        <x:v>82</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="L39" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M39" s="4">
         <x:v>3</x:v>
@@ -2084,53 +2087,53 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O39" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="3:15">
       <x:c r="C40" s="6" t="s">
-        <x:v>175</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D40" s="6" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L40" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M40" s="4">
         <x:v>5</x:v>
       </x:c>
       <x:c r="N40" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="O40" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="3:15">
       <x:c r="C41" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L41" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="M41" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="N41" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O41" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="3:3">
       <x:c r="C42" s="6" t="s">
-        <x:v>165</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -2142,7 +2145,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="B2:M21"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="B9" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="I13" activeCellId="0" sqref="I13:I13"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2163,26 +2166,26 @@
   <x:sheetData>
     <x:row r="2" spans="2:5">
       <x:c r="B2" s="12" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2" s="6" t="s">
-        <x:v>96</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:3">
       <x:c r="B3" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C3" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="3:6">
       <x:c r="C5" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D5" s="2"/>
       <x:c r="E5" s="9"/>
@@ -2190,25 +2193,25 @@
     </x:row>
     <x:row r="6" spans="3:13">
       <x:c r="C6" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F6" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="I6" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="J6" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="M6" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="3:13">
@@ -2216,7 +2219,7 @@
         <x:v>1003</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E7" s="10">
         <x:v>3011</x:v>
@@ -2225,13 +2228,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="J7" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M7" s="8" t="s">
-        <x:v>138</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="3:13">
@@ -2239,7 +2242,7 @@
         <x:v>2106</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E8" s="10">
         <x:v>3426</x:v>
@@ -2248,13 +2251,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I8" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J8" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M8" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="3:13">
@@ -2262,22 +2265,22 @@
         <x:v>3011</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F9" s="10">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I9" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J9" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M9" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="3:13">
@@ -2285,7 +2288,7 @@
         <x:v>3426</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E10" s="10">
         <x:v>3011</x:v>
@@ -2296,13 +2299,13 @@
       <x:c r="G10" s="2"/>
       <x:c r="H10" s="2"/>
       <x:c r="I10" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J10" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M10" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="3:6">
@@ -2310,7 +2313,7 @@
         <x:v>3427</x:v>
       </x:c>
       <x:c r="D11" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E11" s="10">
         <x:v>2106</x:v>
@@ -2321,13 +2324,13 @@
     </x:row>
     <x:row r="15" spans="3:11">
       <x:c r="C15" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D15" s="2"/>
       <x:c r="E15" s="9"/>
       <x:c r="F15" s="2"/>
       <x:c r="H15" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I15" s="2"/>
       <x:c r="J15" s="9"/>
@@ -2335,28 +2338,28 @@
     </x:row>
     <x:row r="16" spans="3:11">
       <x:c r="C16" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D16" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E16" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F16" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H16" s="13" t="s">
-        <x:v>42</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I16" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="J16" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K16" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="3:11">
@@ -2364,7 +2367,7 @@
         <x:v>1003</x:v>
       </x:c>
       <x:c r="D17" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E17" s="13">
         <x:v>3011</x:v>
@@ -2376,7 +2379,7 @@
         <x:v>1003</x:v>
       </x:c>
       <x:c r="I17" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="J17" s="10">
         <x:v>3011</x:v>
@@ -2390,7 +2393,7 @@
         <x:v>2106</x:v>
       </x:c>
       <x:c r="D18" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E18" s="13">
         <x:v>3426</x:v>
@@ -2402,7 +2405,7 @@
         <x:v>2106</x:v>
       </x:c>
       <x:c r="I18" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J18" s="10">
         <x:v>3426</x:v>
@@ -2416,10 +2419,10 @@
         <x:v>3011</x:v>
       </x:c>
       <x:c r="D19" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E19" s="13" t="s">
-        <x:v>43</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F19" s="10">
         <x:v>1</x:v>
@@ -2428,10 +2431,10 @@
         <x:v>3011</x:v>
       </x:c>
       <x:c r="I19" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J19" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="K19" s="10">
         <x:v>1</x:v>
@@ -2442,7 +2445,7 @@
         <x:v>3426</x:v>
       </x:c>
       <x:c r="D20" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E20" s="13">
         <x:v>3011</x:v>
@@ -2454,7 +2457,7 @@
         <x:v>3426</x:v>
       </x:c>
       <x:c r="I20" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J20" s="10">
         <x:v>3011</x:v>
@@ -2468,7 +2471,7 @@
         <x:v>3427</x:v>
       </x:c>
       <x:c r="D21" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E21" s="13">
         <x:v>2106</x:v>
@@ -2480,7 +2483,7 @@
         <x:v>3427</x:v>
       </x:c>
       <x:c r="I21" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J21" s="10">
         <x:v>2106</x:v>
@@ -2490,7 +2493,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -2502,7 +2505,7 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="B2:Q20"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="B1" zoomScale="60" zoomScaleNormal="75" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <x:sheetView showGridLines="0" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <x:selection activeCell="V10" activeCellId="0" sqref="V10:V10"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2529,26 +2532,26 @@
   <x:sheetData>
     <x:row r="2" spans="2:5">
       <x:c r="B2" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2" s="6" t="s">
-        <x:v>96</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:3">
       <x:c r="B3" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C3" s="6" t="s">
-        <x:v>144</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="3:9">
       <x:c r="C5" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D5" s="2"/>
       <x:c r="E5" s="9"/>
@@ -2559,165 +2562,165 @@
     </x:row>
     <x:row r="6" spans="3:16">
       <x:c r="C6" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F6" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G6" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H6" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I6" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L6" s="10" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="M6" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P6" s="6" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="L6" s="10" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="M6" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="P6" s="6" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="3:16">
       <x:c r="C7" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E7" s="10">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G7" s="10" t="s">
-        <x:v>121</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H7" s="10">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="I7" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L7" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M7" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="P7" s="8" t="s">
-        <x:v>139</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="3:13">
       <x:c r="C8" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E8" s="10">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F8" s="10" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G8" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H8" s="10">
         <x:v>2500</x:v>
       </x:c>
       <x:c r="I8" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L8" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="M8" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="3:16">
       <x:c r="C9" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E9" s="10">
         <x:v>28</x:v>
       </x:c>
       <x:c r="F9" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G9" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H9" s="10">
         <x:v>4500</x:v>
       </x:c>
       <x:c r="I9" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L9" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M9" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="P9" s="6" t="s">
-        <x:v>176</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="3:16">
       <x:c r="C10" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E10" s="10">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F10" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G10" s="10" t="s">
-        <x:v>121</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H10" s="10">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="J10" s="2"/>
       <x:c r="K10" s="2"/>
       <x:c r="P10" s="6" t="s">
-        <x:v>168</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="16:16">
       <x:c r="P11" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="3:17">
       <x:c r="C15" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="2"/>
       <x:c r="E15" s="9"/>
@@ -2726,7 +2729,7 @@
       <x:c r="H15" s="2"/>
       <x:c r="I15" s="2"/>
       <x:c r="K15" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L15" s="2"/>
       <x:c r="M15" s="9"/>
@@ -2737,226 +2740,226 @@
     </x:row>
     <x:row r="16" spans="3:17">
       <x:c r="C16" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D16" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E16" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F16" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G16" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H16" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I16" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K16" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="L16" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M16" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N16" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="O16" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P16" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="Q16" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="3:17">
       <x:c r="C17" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D17" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E17" s="10">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F17" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G17" s="10" t="s">
-        <x:v>121</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H17" s="10">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="I17" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K17" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L17" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M17" s="10">
         <x:v>20</x:v>
       </x:c>
       <x:c r="N17" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O17" s="10" t="s">
-        <x:v>121</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="P17" s="10">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="Q17" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="3:17">
       <x:c r="C18" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D18" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E18" s="10">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F18" s="10" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G18" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H18" s="10">
         <x:v>2500</x:v>
       </x:c>
       <x:c r="I18" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K18" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L18" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="M18" s="10">
         <x:v>25</x:v>
       </x:c>
       <x:c r="N18" s="10" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="O18" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="P18" s="10">
         <x:v>2500</x:v>
       </x:c>
       <x:c r="Q18" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="3:17">
       <x:c r="C19" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D19" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E19" s="10">
         <x:v>28</x:v>
       </x:c>
       <x:c r="F19" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G19" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H19" s="10">
         <x:v>4500</x:v>
       </x:c>
       <x:c r="I19" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K19" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L19" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M19" s="10">
         <x:v>28</x:v>
       </x:c>
       <x:c r="N19" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O19" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="P19" s="10">
         <x:v>4500</x:v>
       </x:c>
       <x:c r="Q19" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="3:17">
       <x:c r="C20" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D20" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E20" s="10">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F20" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G20" s="10" t="s">
-        <x:v>121</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H20" s="10">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I20" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="K20" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L20" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M20" s="10">
         <x:v>22</x:v>
       </x:c>
       <x:c r="N20" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="O20" s="10" t="s">
-        <x:v>121</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="P20" s="10">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q20" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -2968,8 +2971,8 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="B1:O42"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="C17" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="L27" activeCellId="0" sqref="L27:L27"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="C52" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <x:selection activeCell="Y27" activeCellId="0" sqref="Y27:Y27"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.39999999999999857891"/>
@@ -2997,10 +3000,10 @@
     </x:row>
     <x:row r="2" spans="2:11">
       <x:c r="B2" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D2" s="1"/>
       <x:c r="H2" s="1"/>
@@ -3008,50 +3011,50 @@
     </x:row>
     <x:row r="3" spans="15:15">
       <x:c r="O3" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:15">
       <x:c r="D4" s="15" t="s">
-        <x:v>150</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H4" s="15" t="s">
-        <x:v>145</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="O4" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:15">
       <x:c r="D5" s="17" t="s">
-        <x:v>149</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E5" s="17" t="s">
-        <x:v>108</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F5" s="17" t="s">
-        <x:v>45</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="H5" s="17" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I5" s="17" t="s">
-        <x:v>53</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J5" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K5" s="17" t="s">
-        <x:v>46</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="L5" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M5" s="17" t="s">
-        <x:v>151</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="O5" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:15">
@@ -3059,7 +3062,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>135</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>8</x:v>
@@ -3068,10 +3071,10 @@
         <x:v>1003</x:v>
       </x:c>
       <x:c r="I6" s="17" t="s">
-        <x:v>34</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="J6" s="17" t="s">
-        <x:v>134</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="K6" s="4">
         <x:v>4377</x:v>
@@ -3083,7 +3086,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O6" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:13">
@@ -3091,7 +3094,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E7" s="17" t="s">
-        <x:v>136</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>10</x:v>
@@ -3100,10 +3103,10 @@
         <x:v>1365</x:v>
       </x:c>
       <x:c r="I7" s="17" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="J7" s="17" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="K7" s="4">
         <x:v>3426</x:v>
@@ -3120,7 +3123,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="17" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F8" s="4">
         <x:v>9</x:v>
@@ -3129,10 +3132,10 @@
         <x:v>2106</x:v>
       </x:c>
       <x:c r="I8" s="17" t="s">
-        <x:v>36</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J8" s="17" t="s">
-        <x:v>132</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="K8" s="4">
         <x:v>1003</x:v>
@@ -3144,7 +3147,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O8" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="4:13">
@@ -3152,7 +3155,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E9" s="17" t="s">
-        <x:v>129</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F9" s="4">
         <x:v>7</x:v>
@@ -3161,10 +3164,10 @@
         <x:v>3011</x:v>
       </x:c>
       <x:c r="I9" s="17" t="s">
-        <x:v>39</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J9" s="17" t="s">
-        <x:v>126</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="K9" s="4">
         <x:v>4377</x:v>
@@ -3184,10 +3187,10 @@
         <x:v>3426</x:v>
       </x:c>
       <x:c r="I10" s="17" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J10" s="17" t="s">
-        <x:v>134</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="K10" s="4">
         <x:v>4377</x:v>
@@ -3199,7 +3202,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O10" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:15">
@@ -3210,10 +3213,10 @@
         <x:v>3427</x:v>
       </x:c>
       <x:c r="I11" s="17" t="s">
-        <x:v>32</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J11" s="17" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="K11" s="4">
         <x:v>3011</x:v>
@@ -3225,7 +3228,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O11" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="8:13">
@@ -3233,13 +3236,13 @@
         <x:v>4377</x:v>
       </x:c>
       <x:c r="I12" s="17" t="s">
-        <x:v>128</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="J12" s="17" t="s">
-        <x:v>133</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K12" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="L12" s="4">
         <x:v>5000000</x:v>
@@ -3258,13 +3261,13 @@
     </x:row>
     <x:row r="14" spans="4:8">
       <x:c r="D14" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H14" s="16"/>
     </x:row>
     <x:row r="15" spans="4:10">
       <x:c r="D15" s="5" t="s">
-        <x:v>170</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E15" s="5"/>
       <x:c r="F15" s="5"/>
@@ -3274,7 +3277,7 @@
     </x:row>
     <x:row r="16" spans="4:10">
       <x:c r="D16" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E16" s="5"/>
       <x:c r="F16" s="5"/>
@@ -3284,7 +3287,7 @@
     </x:row>
     <x:row r="17" spans="4:8">
       <x:c r="D17" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E17" s="5"/>
       <x:c r="F17" s="14"/>
@@ -3297,13 +3300,13 @@
     </x:row>
     <x:row r="19" spans="4:6">
       <x:c r="D19" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F19" s="5"/>
     </x:row>
     <x:row r="20" spans="4:4">
       <x:c r="D20" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="8:8">
@@ -3311,13 +3314,13 @@
     </x:row>
     <x:row r="23" spans="4:8">
       <x:c r="D23" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H23" s="16"/>
     </x:row>
     <x:row r="24" spans="4:10">
       <x:c r="D24" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E24" s="5"/>
       <x:c r="F24" s="5"/>
@@ -3327,7 +3330,7 @@
     </x:row>
     <x:row r="25" spans="4:10">
       <x:c r="D25" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E25" s="5"/>
       <x:c r="F25" s="5"/>
@@ -3337,7 +3340,7 @@
     </x:row>
     <x:row r="26" spans="4:10">
       <x:c r="D26" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E26" s="5"/>
       <x:c r="F26" s="5"/>
@@ -3358,13 +3361,13 @@
     </x:row>
     <x:row r="30" spans="4:8">
       <x:c r="D30" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H30" s="16"/>
     </x:row>
     <x:row r="31" spans="4:10">
       <x:c r="D31" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E31" s="5"/>
       <x:c r="F31" s="5"/>
@@ -3374,7 +3377,7 @@
     </x:row>
     <x:row r="32" spans="4:10">
       <x:c r="D32" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E32" s="5"/>
       <x:c r="F32" s="5"/>
@@ -3384,7 +3387,7 @@
     </x:row>
     <x:row r="33" spans="4:10">
       <x:c r="D33" s="5" t="s">
-        <x:v>104</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E33" s="5"/>
       <x:c r="F33" s="5"/>
@@ -3414,7 +3417,7 @@
     </x:row>
     <x:row r="38" spans="4:10">
       <x:c r="D38" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E38" s="5"/>
       <x:c r="F38" s="5"/>
@@ -3424,18 +3427,18 @@
     </x:row>
     <x:row r="39" spans="4:8">
       <x:c r="D39" s="5" t="s">
-        <x:v>166</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H39" s="16"/>
     </x:row>
     <x:row r="40" spans="4:4">
       <x:c r="D40" s="5" t="s">
-        <x:v>167</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="4:6">
       <x:c r="D41" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F41" s="5"/>
     </x:row>
@@ -3443,7 +3446,7 @@
       <x:c r="F42" s="5"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
@@ -3453,10 +3456,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
-  <x:dimension ref="B1:N61"/>
+  <x:dimension ref="B1:N83"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="D41" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="M51" activeCellId="0" sqref="M51:M51"/>
+    <x:sheetView showGridLines="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <x:selection activeCell="K55" activeCellId="0" sqref="K55:K55"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.39999999999999857891"/>
@@ -3482,10 +3485,10 @@
     </x:row>
     <x:row r="2" spans="2:12">
       <x:c r="B2" s="14" t="s">
-        <x:v>143</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D2" s="1"/>
       <x:c r="I2" s="1"/>
@@ -3493,70 +3496,70 @@
     </x:row>
     <x:row r="3" spans="14:14">
       <x:c r="N3" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="4:14">
       <x:c r="D4" s="15" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I4" s="15" t="s">
-        <x:v>55</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N4" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="4:14">
       <x:c r="D5" s="17" t="s">
-        <x:v>117</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E5" s="17" t="s">
-        <x:v>69</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F5" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G5" s="17" t="s">
-        <x:v>71</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I5" s="17" t="s">
-        <x:v>87</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="J5" s="17" t="s">
-        <x:v>80</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="K5" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="L5" s="17" t="s">
-        <x:v>70</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="N5" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="4:12">
       <x:c r="D6" s="17" t="s">
-        <x:v>155</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>118</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F6" s="17" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G6" s="4">
         <x:v>23</x:v>
       </x:c>
       <x:c r="I6" s="17" t="s">
-        <x:v>153</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J6" s="17" t="s">
-        <x:v>111</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="K6" s="17" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L6" s="4">
         <x:v>36</x:v>
@@ -3564,71 +3567,71 @@
     </x:row>
     <x:row r="7" spans="4:14">
       <x:c r="D7" s="17" t="s">
-        <x:v>156</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E7" s="17" t="s">
-        <x:v>116</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F7" s="17" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G7" s="4">
         <x:v>34</x:v>
       </x:c>
       <x:c r="I7" s="17" t="s">
-        <x:v>154</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J7" s="17" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="K7" s="17" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="K7" s="17" t="s">
-        <x:v>112</x:v>
       </x:c>
       <x:c r="L7" s="4">
         <x:v>32</x:v>
       </x:c>
       <x:c r="N7" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="4:14">
       <x:c r="D8" s="17" t="s">
-        <x:v>158</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="17" t="s">
-        <x:v>110</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F8" s="17" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G8" s="4">
         <x:v>22</x:v>
       </x:c>
       <x:c r="I8" s="17" t="s">
-        <x:v>159</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J8" s="17" t="s">
-        <x:v>115</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="K8" s="17" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="L8" s="4">
         <x:v>45</x:v>
       </x:c>
       <x:c r="N8" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="4:7">
       <x:c r="D9" s="17" t="s">
-        <x:v>157</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E9" s="17" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F9" s="17" t="s">
         <x:v>113</x:v>
-      </x:c>
-      <x:c r="F9" s="17" t="s">
-        <x:v>114</x:v>
       </x:c>
       <x:c r="G9" s="4">
         <x:v>21</x:v>
@@ -3640,7 +3643,7 @@
       <x:c r="F10" s="16"/>
       <x:c r="G10" s="16"/>
       <x:c r="N10" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="4:14">
@@ -3649,23 +3652,23 @@
       <x:c r="F11" s="16"/>
       <x:c r="G11" s="16"/>
       <x:c r="N11" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="14:14">
       <x:c r="N13" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="4:9">
       <x:c r="D14" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I14" s="16"/>
     </x:row>
     <x:row r="15" spans="4:11">
       <x:c r="D15" s="5" t="s">
-        <x:v>164</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E15" s="5"/>
       <x:c r="F15" s="5"/>
@@ -3676,7 +3679,7 @@
     </x:row>
     <x:row r="16" spans="4:11">
       <x:c r="D16" s="5" t="s">
-        <x:v>169</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E16" s="5"/>
       <x:c r="F16" s="5"/>
@@ -3687,7 +3690,7 @@
     </x:row>
     <x:row r="17" spans="4:9">
       <x:c r="D17" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F17" s="5"/>
       <x:c r="G17" s="5"/>
@@ -3695,7 +3698,7 @@
     </x:row>
     <x:row r="18" spans="4:9">
       <x:c r="D18" s="14" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F18" s="5"/>
       <x:c r="G18" s="5"/>
@@ -3717,13 +3720,13 @@
     </x:row>
     <x:row r="23" spans="4:9">
       <x:c r="D23" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I23" s="16"/>
     </x:row>
     <x:row r="24" spans="4:11">
       <x:c r="D24" s="5" t="s">
-        <x:v>164</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E24" s="5"/>
       <x:c r="F24" s="5"/>
@@ -3734,7 +3737,7 @@
     </x:row>
     <x:row r="25" spans="4:11">
       <x:c r="D25" s="5" t="s">
-        <x:v>169</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E25" s="5"/>
       <x:c r="F25" s="5"/>
@@ -3745,7 +3748,7 @@
     </x:row>
     <x:row r="26" spans="4:11">
       <x:c r="D26" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E26" s="5"/>
       <x:c r="F26" s="5"/>
@@ -3785,7 +3788,7 @@
     </x:row>
     <x:row r="32" spans="4:11">
       <x:c r="D32" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E32" s="5"/>
       <x:c r="F32" s="5"/>
@@ -3796,7 +3799,7 @@
     </x:row>
     <x:row r="33" spans="4:11">
       <x:c r="D33" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E33" s="5"/>
       <x:c r="F33" s="5"/>
@@ -3807,18 +3810,18 @@
     </x:row>
     <x:row r="34" spans="4:9">
       <x:c r="D34" s="5" t="s">
-        <x:v>162</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I34" s="16"/>
     </x:row>
     <x:row r="35" spans="4:4">
       <x:c r="D35" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="4:7">
       <x:c r="D36" s="5" t="s">
-        <x:v>172</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F36" s="5"/>
       <x:c r="G36" s="5"/>
@@ -3833,71 +3836,86 @@
     </x:row>
     <x:row r="41" spans="4:4">
       <x:c r="D41" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="4:4">
       <x:c r="D42" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="4:4">
       <x:c r="D43" s="5" t="s">
-        <x:v>174</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="4:4">
       <x:c r="D44" s="5" t="s">
-        <x:v>169</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="4:4">
       <x:c r="D45" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="4:4">
       <x:c r="D51" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="4:4">
       <x:c r="D52" s="5" t="s">
-        <x:v>171</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="4:4">
       <x:c r="D53" s="5" t="s">
-        <x:v>169</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="4:4">
       <x:c r="D54" s="5" t="s">
-        <x:v>160</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="4:4">
       <x:c r="D58" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="4:4">
       <x:c r="D59" s="5" t="s">
-        <x:v>173</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="4:4">
       <x:c r="D60" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="4:4">
       <x:c r="D61" s="5" t="s">
-        <x:v>97</x:v>
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="4:4">
+      <x:c r="D80" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="4:4">
+      <x:c r="D81" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="4:4">
+      <x:c r="D83" s="2" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:drawing r:id="rId1"/>
